--- a/AdditionalMetrics/AdditionalMetricsExperiments_1_2_3_Architecture_3_SmartGateway.xlsx
+++ b/AdditionalMetrics/AdditionalMetricsExperiments_1_2_3_Architecture_3_SmartGateway.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\INVESTIGACION\PAPERS\2024 ECSA\EnergyConsumption_IoTMonitoringEdgeArchitectures\AdditionalMetrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\INVESTIGACION\PAPERS\ACEPTADOS\2024 ECSA\EnergyConsumption_IoTMonitoringEdgeArchitectures\AdditionalMetrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -67,9 +67,6 @@
     <t>T_mem_RAM (bytes)</t>
   </si>
   <si>
-    <t>RSS (Resisden Set Size) (bytes)</t>
-  </si>
-  <si>
     <t>VSZ (Virtual Set Size) (bytes)</t>
   </si>
   <si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>Experiment 3</t>
+  </si>
+  <si>
+    <t>RSS (Resident Set Size) (bytes)</t>
   </si>
 </sst>
 </file>
@@ -412,17 +412,17 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I434" sqref="I434"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="1" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
+    <col min="5" max="5" width="29.26953125" customWidth="1"/>
+    <col min="6" max="6" width="28.1796875" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -444,13 +444,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2851,7 +2851,7 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B108" s="1"/>
     </row>
@@ -6150,7 +6150,7 @@
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B253" s="1"/>
     </row>
